--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43039,6 +43039,41 @@
         <v>119500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>33400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43074,6 +43074,41 @@
         <v>33400</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>145700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43109,6 +43109,41 @@
         <v>145700</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>988300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43144,6 +43144,41 @@
         <v>988300</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>468800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43179,6 +43179,41 @@
         <v>468800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1121800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43214,6 +43214,41 @@
         <v>1121800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>431100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43249,6 +43249,41 @@
         <v>431100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>98400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43284,6 +43284,41 @@
         <v>98400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>217800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43319,6 +43319,41 @@
         <v>217800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>310700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43354,6 +43354,41 @@
         <v>310700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>535200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43389,6 +43389,41 @@
         <v>535200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>223000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43424,6 +43424,41 @@
         <v>223000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>121400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43459,6 +43459,76 @@
         <v>121400</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>194000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>678200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43529,6 +43529,76 @@
         <v>678200</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>687400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>96800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43599,6 +43599,41 @@
         <v>96800</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>324400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43634,6 +43634,41 @@
         <v>324400</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>203300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43669,6 +43669,41 @@
         <v>203300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>614700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43704,6 +43704,41 @@
         <v>614700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>695600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43739,6 +43739,76 @@
         <v>695600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>273200</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>296900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43809,6 +43809,41 @@
         <v>296900</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>537900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43844,6 +43844,41 @@
         <v>537900</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>540200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2667"/>
+  <dimension ref="A1:I2668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93789,6 +93789,41 @@
         <v>540200</v>
       </c>
     </row>
+    <row r="2668">
+      <c r="A2668" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2668" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2668" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D2668" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E2668" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F2668" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G2668" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H2668" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I2668" t="n">
+        <v>698800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2668"/>
+  <dimension ref="A1:I2669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93824,6 +93824,41 @@
         <v>698800</v>
       </c>
     </row>
+    <row r="2669">
+      <c r="A2669" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2669" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2669" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D2669" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E2669" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2669" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G2669" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2669" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I2669" t="n">
+        <v>444100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2669"/>
+  <dimension ref="A1:I2670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93859,6 +93859,41 @@
         <v>444100</v>
       </c>
     </row>
+    <row r="2670">
+      <c r="A2670" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2670" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2670" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D2670" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E2670" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F2670" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2670" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H2670" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I2670" t="n">
+        <v>323700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2670"/>
+  <dimension ref="A1:I2671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93894,6 +93894,41 @@
         <v>323700</v>
       </c>
     </row>
+    <row r="2671">
+      <c r="A2671" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2671" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2671" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D2671" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E2671" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F2671" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G2671" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2671" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2671" t="n">
+        <v>377400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2671"/>
+  <dimension ref="A1:I2672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93929,6 +93929,41 @@
         <v>377400</v>
       </c>
     </row>
+    <row r="2672">
+      <c r="A2672" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2672" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2672" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D2672" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E2672" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F2672" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G2672" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H2672" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I2672" t="n">
+        <v>162400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2672"/>
+  <dimension ref="A1:I2673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93964,6 +93964,41 @@
         <v>162400</v>
       </c>
     </row>
+    <row r="2673">
+      <c r="A2673" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2673" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2673" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D2673" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E2673" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F2673" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G2673" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H2673" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I2673" t="n">
+        <v>269800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2673"/>
+  <dimension ref="A1:I2674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93999,6 +93999,41 @@
         <v>269800</v>
       </c>
     </row>
+    <row r="2674">
+      <c r="A2674" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2674" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2674" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D2674" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E2674" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F2674" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G2674" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2674" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I2674" t="n">
+        <v>39500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2674"/>
+  <dimension ref="A1:I2675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94034,6 +94034,41 @@
         <v>39500</v>
       </c>
     </row>
+    <row r="2675">
+      <c r="A2675" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2675" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2675" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D2675" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E2675" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F2675" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G2675" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2675" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I2675" t="n">
+        <v>219600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2675"/>
+  <dimension ref="A1:I2676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94069,6 +94069,41 @@
         <v>219600</v>
       </c>
     </row>
+    <row r="2676">
+      <c r="A2676" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2676" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2676" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D2676" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E2676" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F2676" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G2676" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H2676" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I2676" t="n">
+        <v>115300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2676"/>
+  <dimension ref="A1:I2677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94104,6 +94104,41 @@
         <v>115300</v>
       </c>
     </row>
+    <row r="2677">
+      <c r="A2677" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2677" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2677" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D2677" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E2677" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F2677" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G2677" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H2677" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I2677" t="n">
+        <v>72500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2677"/>
+  <dimension ref="A1:I2678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94139,6 +94139,41 @@
         <v>72500</v>
       </c>
     </row>
+    <row r="2678">
+      <c r="A2678" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2678" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2678" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D2678" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E2678" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F2678" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G2678" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H2678" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I2678" t="n">
+        <v>23100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2678"/>
+  <dimension ref="A1:I2679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94174,6 +94174,41 @@
         <v>23100</v>
       </c>
     </row>
+    <row r="2679">
+      <c r="A2679" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2679" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2679" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D2679" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E2679" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F2679" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G2679" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2679" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I2679" t="n">
+        <v>249400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2679"/>
+  <dimension ref="A1:I2680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94209,6 +94209,41 @@
         <v>249400</v>
       </c>
     </row>
+    <row r="2680">
+      <c r="A2680" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2680" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2680" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D2680" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E2680" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F2680" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2680" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2680" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I2680" t="n">
+        <v>159700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2680"/>
+  <dimension ref="A1:I2681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94244,6 +94244,41 @@
         <v>159700</v>
       </c>
     </row>
+    <row r="2681">
+      <c r="A2681" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2681" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2681" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D2681" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E2681" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2681" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G2681" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H2681" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I2681" t="n">
+        <v>102200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3298.xlsx
+++ b/data/3298.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2681"/>
+  <dimension ref="A1:I2682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94279,6 +94279,41 @@
         <v>102200</v>
       </c>
     </row>
+    <row r="2682">
+      <c r="A2682" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2682" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2682" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="D2682" t="inlineStr">
+        <is>
+          <t>HEXZA</t>
+        </is>
+      </c>
+      <c r="E2682" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F2682" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G2682" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H2682" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I2682" t="n">
+        <v>57900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
